--- a/doc/Primary_development/completion_DetailedDesign/900系_ユースケース構成.xlsx
+++ b/doc/Primary_development/completion_DetailedDesign/900系_ユースケース構成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="4035" windowWidth="15210" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12555" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="UC901" sheetId="4" r:id="rId1"/>
@@ -763,6 +763,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -792,33 +819,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1595,8 +1595,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1623,20 +1623,20 @@
         <v>10</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="20"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -1669,55 +1669,55 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="52"/>
+      <c r="H6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="54"/>
+      <c r="J6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="48" t="s">
+      <c r="K6" s="46"/>
+      <c r="L6" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="50"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="46"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1735,25 +1735,25 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="40" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1779,15 +1779,15 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1801,25 +1801,25 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="38" t="s">
         <v>61</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1835,15 +1835,15 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1913,25 +1913,25 @@
       <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="38" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1957,15 +1957,15 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2002,12 +2002,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:C11"/>
@@ -2022,14 +2024,12 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
